--- a/data/pca/factorExposure/factorExposure_2015-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02039024947660641</v>
+        <v>0.01112852337602094</v>
       </c>
       <c r="C2">
-        <v>-0.02695772562703812</v>
+        <v>-0.0523641927024552</v>
       </c>
       <c r="D2">
-        <v>-0.1291729607071221</v>
+        <v>0.1465497302364262</v>
       </c>
       <c r="E2">
-        <v>0.003908747035535204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007215875217254124</v>
+      </c>
+      <c r="F2">
+        <v>-0.01262171589164436</v>
+      </c>
+      <c r="G2">
+        <v>-0.1203069176991905</v>
+      </c>
+      <c r="H2">
+        <v>-0.06810615627251056</v>
+      </c>
+      <c r="I2">
+        <v>-0.03557527384695906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.005985775398067425</v>
+        <v>-0.0006394367932359812</v>
       </c>
       <c r="C3">
-        <v>-0.01728035536568082</v>
+        <v>-0.01425299659394442</v>
       </c>
       <c r="D3">
-        <v>-0.01247312006792965</v>
+        <v>0.00802657699367018</v>
       </c>
       <c r="E3">
-        <v>0.0003224730173714764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01752049175162761</v>
+      </c>
+      <c r="F3">
+        <v>0.01571971705069302</v>
+      </c>
+      <c r="G3">
+        <v>-0.0007810091433194937</v>
+      </c>
+      <c r="H3">
+        <v>-0.007388802138087662</v>
+      </c>
+      <c r="I3">
+        <v>0.0115633318416517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04713193752635442</v>
+        <v>0.02203804488032567</v>
       </c>
       <c r="C4">
-        <v>-0.07019150805911632</v>
+        <v>-0.09934581760185095</v>
       </c>
       <c r="D4">
-        <v>-0.1316144976969806</v>
+        <v>0.1409125735796719</v>
       </c>
       <c r="E4">
-        <v>-0.07156071433601063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01657399299879405</v>
+      </c>
+      <c r="F4">
+        <v>-0.08641787212825812</v>
+      </c>
+      <c r="G4">
+        <v>-0.005748342283403477</v>
+      </c>
+      <c r="H4">
+        <v>-0.04450813700013283</v>
+      </c>
+      <c r="I4">
+        <v>-0.03125840013490298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02634239012613494</v>
+        <v>0.03002332473865134</v>
       </c>
       <c r="C6">
-        <v>-0.01236102137048007</v>
+        <v>-0.02911265912455295</v>
       </c>
       <c r="D6">
-        <v>-0.1447422311807072</v>
+        <v>0.1304573785912455</v>
       </c>
       <c r="E6">
-        <v>-0.03166771031302403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04431922120029018</v>
+      </c>
+      <c r="F6">
+        <v>-0.05181284694938102</v>
+      </c>
+      <c r="G6">
+        <v>-0.01478282309697766</v>
+      </c>
+      <c r="H6">
+        <v>-0.06197523075228887</v>
+      </c>
+      <c r="I6">
+        <v>0.01564743820378547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008955997578487685</v>
+        <v>0.01026022352519368</v>
       </c>
       <c r="C7">
-        <v>-0.0236281858130011</v>
+        <v>-0.03354383270089967</v>
       </c>
       <c r="D7">
-        <v>-0.114198095180768</v>
+        <v>0.1030202552627572</v>
       </c>
       <c r="E7">
-        <v>0.00374656911710282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04725768670103224</v>
+      </c>
+      <c r="F7">
+        <v>-0.006542592681999235</v>
+      </c>
+      <c r="G7">
+        <v>0.005500649404740273</v>
+      </c>
+      <c r="H7">
+        <v>-0.071109849612615</v>
+      </c>
+      <c r="I7">
+        <v>0.02345658435154559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001170061922752757</v>
+        <v>-0.00887096385692541</v>
       </c>
       <c r="C8">
-        <v>-0.028048428810317</v>
+        <v>-0.03359377867713358</v>
       </c>
       <c r="D8">
-        <v>-0.08234258754377717</v>
+        <v>0.08186456005573757</v>
       </c>
       <c r="E8">
-        <v>-0.01989673883637746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01787731641094463</v>
+      </c>
+      <c r="F8">
+        <v>-0.04152527328741391</v>
+      </c>
+      <c r="G8">
+        <v>-0.07051933214469543</v>
+      </c>
+      <c r="H8">
+        <v>-0.004678788500648168</v>
+      </c>
+      <c r="I8">
+        <v>0.03419737867369294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.04056648887151379</v>
+        <v>0.01765439814147308</v>
       </c>
       <c r="C9">
-        <v>-0.06128583588003691</v>
+        <v>-0.08384817368316086</v>
       </c>
       <c r="D9">
-        <v>-0.1349142955105389</v>
+        <v>0.1230568086235881</v>
       </c>
       <c r="E9">
-        <v>-0.05597749315567341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005197510031695812</v>
+      </c>
+      <c r="F9">
+        <v>-0.05766975841753958</v>
+      </c>
+      <c r="G9">
+        <v>0.01441978871861842</v>
+      </c>
+      <c r="H9">
+        <v>-0.05692707998591582</v>
+      </c>
+      <c r="I9">
+        <v>-0.001188949221823582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1447092622816308</v>
+        <v>0.225375416189992</v>
       </c>
       <c r="C10">
-        <v>0.1871999348908948</v>
+        <v>0.1069081459684599</v>
       </c>
       <c r="D10">
-        <v>-0.01797951754513529</v>
+        <v>-0.001788979994290836</v>
       </c>
       <c r="E10">
-        <v>-0.04829251984325502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02343775080387026</v>
+      </c>
+      <c r="F10">
+        <v>-0.04005979369643271</v>
+      </c>
+      <c r="G10">
+        <v>4.996033176729722e-05</v>
+      </c>
+      <c r="H10">
+        <v>0.06095897497811599</v>
+      </c>
+      <c r="I10">
+        <v>0.1251128671292781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02405468672603608</v>
+        <v>0.01020122410564785</v>
       </c>
       <c r="C11">
-        <v>-0.04001042206990978</v>
+        <v>-0.05235921998510186</v>
       </c>
       <c r="D11">
-        <v>-0.05272197128590413</v>
+        <v>0.04603816194282585</v>
       </c>
       <c r="E11">
-        <v>0.01666570372736469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01924505606907076</v>
+      </c>
+      <c r="F11">
+        <v>0.01083885311391005</v>
+      </c>
+      <c r="G11">
+        <v>0.007146704332882422</v>
+      </c>
+      <c r="H11">
+        <v>-0.04863970735603652</v>
+      </c>
+      <c r="I11">
+        <v>-0.02930809574484064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02653676558432657</v>
+        <v>0.01166712489414982</v>
       </c>
       <c r="C12">
-        <v>-0.04016255160418797</v>
+        <v>-0.04959535501624552</v>
       </c>
       <c r="D12">
-        <v>-0.06565279691973737</v>
+        <v>0.04990128690121424</v>
       </c>
       <c r="E12">
-        <v>0.00844859401780412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01564135900369405</v>
+      </c>
+      <c r="F12">
+        <v>0.01533564342868132</v>
+      </c>
+      <c r="G12">
+        <v>0.02388047849383082</v>
+      </c>
+      <c r="H12">
+        <v>-0.07128677835749071</v>
+      </c>
+      <c r="I12">
+        <v>-0.01519790619723757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.008366349871720814</v>
+        <v>0.004643105750473284</v>
       </c>
       <c r="C13">
-        <v>-0.02872352147109311</v>
+        <v>-0.04515154693670003</v>
       </c>
       <c r="D13">
-        <v>-0.1548016217298389</v>
+        <v>0.1516398252820495</v>
       </c>
       <c r="E13">
-        <v>-0.02204512268021809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03405718022619251</v>
+      </c>
+      <c r="F13">
+        <v>-0.03095675788792976</v>
+      </c>
+      <c r="G13">
+        <v>-0.0346811926671441</v>
+      </c>
+      <c r="H13">
+        <v>-0.07223001008842213</v>
+      </c>
+      <c r="I13">
+        <v>0.08159729820279429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.001529565298302624</v>
+        <v>0.001462966605794315</v>
       </c>
       <c r="C14">
-        <v>-0.02278439993221553</v>
+        <v>-0.02897079886961614</v>
       </c>
       <c r="D14">
-        <v>-0.1063997979342839</v>
+        <v>0.1031450238304724</v>
       </c>
       <c r="E14">
-        <v>-0.006612674391746029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.02852321924408491</v>
+      </c>
+      <c r="F14">
+        <v>-0.02272257113530104</v>
+      </c>
+      <c r="G14">
+        <v>-0.01232647553974913</v>
+      </c>
+      <c r="H14">
+        <v>-0.1187026210255609</v>
+      </c>
+      <c r="I14">
+        <v>0.01967218204304035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0009567813506195725</v>
+        <v>-0.0006767665824075579</v>
       </c>
       <c r="C15">
-        <v>-0.0111719247242717</v>
+        <v>-0.01898630035165142</v>
       </c>
       <c r="D15">
-        <v>-0.02429866700170242</v>
+        <v>0.05147051441984229</v>
       </c>
       <c r="E15">
-        <v>0.006200180716385596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005430908020017739</v>
+      </c>
+      <c r="F15">
+        <v>-0.0020867331757064</v>
+      </c>
+      <c r="G15">
+        <v>-0.01891693307102554</v>
+      </c>
+      <c r="H15">
+        <v>-0.01790221179796169</v>
+      </c>
+      <c r="I15">
+        <v>-0.02030337891127008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02372340405481698</v>
+        <v>0.0108175287967364</v>
       </c>
       <c r="C16">
-        <v>-0.0381476512782294</v>
+        <v>-0.04801741080885426</v>
       </c>
       <c r="D16">
-        <v>-0.05994848193461731</v>
+        <v>0.0474549630911827</v>
       </c>
       <c r="E16">
-        <v>0.01045662847854254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02003262832913916</v>
+      </c>
+      <c r="F16">
+        <v>0.007313500097401445</v>
+      </c>
+      <c r="G16">
+        <v>0.01720580517207912</v>
+      </c>
+      <c r="H16">
+        <v>-0.05331874482664078</v>
+      </c>
+      <c r="I16">
+        <v>-0.02601717198070909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.009176635538040372</v>
+        <v>0.0008182285682509429</v>
       </c>
       <c r="C19">
-        <v>-0.02646276860993708</v>
+        <v>-0.02426264226712901</v>
       </c>
       <c r="D19">
-        <v>-0.1278660959435901</v>
+        <v>0.08133311030471296</v>
       </c>
       <c r="E19">
-        <v>-0.03790243580697707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01929193732121747</v>
+      </c>
+      <c r="F19">
+        <v>-0.007342972810679601</v>
+      </c>
+      <c r="G19">
+        <v>-0.01557197871463459</v>
+      </c>
+      <c r="H19">
+        <v>-0.07648270273416791</v>
+      </c>
+      <c r="I19">
+        <v>0.03840647595279736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.00636062018003754</v>
+        <v>0.00464462276756296</v>
       </c>
       <c r="C20">
-        <v>-0.02770115274403049</v>
+        <v>-0.03911928151782021</v>
       </c>
       <c r="D20">
-        <v>-0.09445206985839494</v>
+        <v>0.0994349533780524</v>
       </c>
       <c r="E20">
-        <v>-0.03101068276247592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.00555197788355833</v>
+      </c>
+      <c r="F20">
+        <v>-0.02662337081227486</v>
+      </c>
+      <c r="G20">
+        <v>-0.001475310382404427</v>
+      </c>
+      <c r="H20">
+        <v>-0.05770732620294541</v>
+      </c>
+      <c r="I20">
+        <v>0.005198976825038555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.009712163298261868</v>
+        <v>0.003425546757269774</v>
       </c>
       <c r="C21">
-        <v>-0.03461163687680686</v>
+        <v>-0.04294155157171053</v>
       </c>
       <c r="D21">
-        <v>-0.1721806897569147</v>
+        <v>0.1394818420946075</v>
       </c>
       <c r="E21">
-        <v>-0.06498149391443762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.004617163360485457</v>
+      </c>
+      <c r="F21">
+        <v>-0.07423523568391188</v>
+      </c>
+      <c r="G21">
+        <v>-0.02067770346945715</v>
+      </c>
+      <c r="H21">
+        <v>-0.1774347756243546</v>
+      </c>
+      <c r="I21">
+        <v>0.1189065130142968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003672774875445818</v>
+        <v>-0.009888664246281086</v>
       </c>
       <c r="C22">
-        <v>-0.06161115945908844</v>
+        <v>-0.07965174064249077</v>
       </c>
       <c r="D22">
-        <v>-0.2017391023811506</v>
+        <v>0.2516197474201421</v>
       </c>
       <c r="E22">
-        <v>0.03782220507902882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.03904024529607939</v>
+      </c>
+      <c r="F22">
+        <v>-0.0271293553030684</v>
+      </c>
+      <c r="G22">
+        <v>-0.3448825877811615</v>
+      </c>
+      <c r="H22">
+        <v>0.4007720764601171</v>
+      </c>
+      <c r="I22">
+        <v>-0.1216702589258478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00394355733349235</v>
+        <v>-0.009444219892168421</v>
       </c>
       <c r="C23">
-        <v>-0.06206409497006235</v>
+        <v>-0.0805740857395664</v>
       </c>
       <c r="D23">
-        <v>-0.2013171136975194</v>
+        <v>0.2522291114928956</v>
       </c>
       <c r="E23">
-        <v>0.03761769381040523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03596738448446301</v>
+      </c>
+      <c r="F23">
+        <v>-0.02646433060968761</v>
+      </c>
+      <c r="G23">
+        <v>-0.3436135289075725</v>
+      </c>
+      <c r="H23">
+        <v>0.4011183968218916</v>
+      </c>
+      <c r="I23">
+        <v>-0.1234303380141647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03141425512712172</v>
+        <v>0.01097475288228911</v>
       </c>
       <c r="C24">
-        <v>-0.05487468200776702</v>
+        <v>-0.0646753331437728</v>
       </c>
       <c r="D24">
-        <v>-0.07183522625557225</v>
+        <v>0.05555586739521554</v>
       </c>
       <c r="E24">
-        <v>0.007361872735998462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02367506401949235</v>
+      </c>
+      <c r="F24">
+        <v>0.005091963193942541</v>
+      </c>
+      <c r="G24">
+        <v>0.01075233095896774</v>
+      </c>
+      <c r="H24">
+        <v>-0.07697201599458126</v>
+      </c>
+      <c r="I24">
+        <v>-0.02512406766897391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03329024754971144</v>
+        <v>0.01450869417719644</v>
       </c>
       <c r="C25">
-        <v>-0.0462903521493311</v>
+        <v>-0.06007921270628731</v>
       </c>
       <c r="D25">
-        <v>-0.06456638582334875</v>
+        <v>0.05209105316677554</v>
       </c>
       <c r="E25">
-        <v>0.001986160858431013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01009770513059405</v>
+      </c>
+      <c r="F25">
+        <v>0.007047340853806878</v>
+      </c>
+      <c r="G25">
+        <v>0.01653937863421878</v>
+      </c>
+      <c r="H25">
+        <v>-0.04482334072058684</v>
+      </c>
+      <c r="I25">
+        <v>-0.01643754799563305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008935023675919751</v>
+        <v>0.008489973467696071</v>
       </c>
       <c r="C26">
-        <v>-0.01693783722869438</v>
+        <v>-0.02588546428541296</v>
       </c>
       <c r="D26">
-        <v>-0.08319077277498747</v>
+        <v>0.07135284374066875</v>
       </c>
       <c r="E26">
-        <v>-0.01540721151946883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02168092525277651</v>
+      </c>
+      <c r="F26">
+        <v>-0.02343649874343853</v>
+      </c>
+      <c r="G26">
+        <v>0.001126158923033584</v>
+      </c>
+      <c r="H26">
+        <v>-0.08409242516499452</v>
+      </c>
+      <c r="I26">
+        <v>0.05271958798492979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2242180234917012</v>
+        <v>0.3180992235349301</v>
       </c>
       <c r="C28">
-        <v>0.2363504491603834</v>
+        <v>0.1182520502211816</v>
       </c>
       <c r="D28">
-        <v>-0.02440485433452753</v>
+        <v>-0.009304313675844396</v>
       </c>
       <c r="E28">
-        <v>-0.06951089237906419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04914844620976421</v>
+      </c>
+      <c r="F28">
+        <v>-0.03905572606623347</v>
+      </c>
+      <c r="G28">
+        <v>-0.02277488322909908</v>
+      </c>
+      <c r="H28">
+        <v>0.02274528434618402</v>
+      </c>
+      <c r="I28">
+        <v>0.136328917370657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002533147490330006</v>
+        <v>0.0009494841684373297</v>
       </c>
       <c r="C29">
-        <v>-0.02416790718397149</v>
+        <v>-0.03098430139335231</v>
       </c>
       <c r="D29">
-        <v>-0.1022210518310765</v>
+        <v>0.09808731071961392</v>
       </c>
       <c r="E29">
-        <v>-0.009445329873951996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03891467996016845</v>
+      </c>
+      <c r="F29">
+        <v>-0.02879444903122936</v>
+      </c>
+      <c r="G29">
+        <v>-0.0008009205681278193</v>
+      </c>
+      <c r="H29">
+        <v>-0.1207690473267023</v>
+      </c>
+      <c r="I29">
+        <v>0.02241065998965304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.03083881713471907</v>
+        <v>0.01888922918216934</v>
       </c>
       <c r="C30">
-        <v>-0.05891893963038091</v>
+        <v>-0.08369921737714058</v>
       </c>
       <c r="D30">
-        <v>-0.1685118457954061</v>
+        <v>0.1646023451791648</v>
       </c>
       <c r="E30">
-        <v>-0.01517673391869849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03743377351105454</v>
+      </c>
+      <c r="F30">
+        <v>-0.03507859116847895</v>
+      </c>
+      <c r="G30">
+        <v>-0.03248901543221218</v>
+      </c>
+      <c r="H30">
+        <v>-0.05208123165347767</v>
+      </c>
+      <c r="I30">
+        <v>-0.06404548149226981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05039326053667597</v>
+        <v>0.01194585751949114</v>
       </c>
       <c r="C31">
-        <v>-0.08315184046937515</v>
+        <v>-0.09265750986730063</v>
       </c>
       <c r="D31">
-        <v>-0.07407617331074857</v>
+        <v>0.04443757213392571</v>
       </c>
       <c r="E31">
-        <v>-0.01182784469366232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008674869735268671</v>
+      </c>
+      <c r="F31">
+        <v>-0.0140733664433424</v>
+      </c>
+      <c r="G31">
+        <v>-0.004861481083291079</v>
+      </c>
+      <c r="H31">
+        <v>-0.04775739320028776</v>
+      </c>
+      <c r="I31">
+        <v>0.07737598625521863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02159019851100055</v>
+        <v>0.0106506751712622</v>
       </c>
       <c r="C32">
-        <v>-0.03677079554310952</v>
+        <v>-0.04527802119721409</v>
       </c>
       <c r="D32">
-        <v>-0.106465869273653</v>
+        <v>0.1115183878315247</v>
       </c>
       <c r="E32">
-        <v>-0.06068003811031622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.008618402021969972</v>
+      </c>
+      <c r="F32">
+        <v>-0.04459673707530657</v>
+      </c>
+      <c r="G32">
+        <v>-0.03130546208248383</v>
+      </c>
+      <c r="H32">
+        <v>-0.0364732197129873</v>
+      </c>
+      <c r="I32">
+        <v>0.07574512141988801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01812203798796081</v>
+        <v>0.008473804964381024</v>
       </c>
       <c r="C33">
-        <v>-0.04291017148571816</v>
+        <v>-0.05715757268875907</v>
       </c>
       <c r="D33">
-        <v>-0.1512797125070096</v>
+        <v>0.1301526064647794</v>
       </c>
       <c r="E33">
-        <v>-0.03589270134259571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01109016878230055</v>
+      </c>
+      <c r="F33">
+        <v>-0.02747546922813781</v>
+      </c>
+      <c r="G33">
+        <v>-0.01220592467933845</v>
+      </c>
+      <c r="H33">
+        <v>-0.07112877037111297</v>
+      </c>
+      <c r="I33">
+        <v>0.02089994259093043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0282186749392567</v>
+        <v>0.00745379178941735</v>
       </c>
       <c r="C34">
-        <v>-0.05646378650261242</v>
+        <v>-0.06130214009363642</v>
       </c>
       <c r="D34">
-        <v>-0.05079811461868734</v>
+        <v>0.03335676619713474</v>
       </c>
       <c r="E34">
-        <v>0.04837899808292313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02807716704092615</v>
+      </c>
+      <c r="F34">
+        <v>0.03411075352549011</v>
+      </c>
+      <c r="G34">
+        <v>0.01124840822088127</v>
+      </c>
+      <c r="H34">
+        <v>-0.06031158517926157</v>
+      </c>
+      <c r="I34">
+        <v>-0.002923320292096865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001367131115693984</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004559651803892406</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01485688137306026</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.00331915964590004</v>
+      </c>
+      <c r="F35">
+        <v>-0.001444500544712967</v>
+      </c>
+      <c r="G35">
+        <v>0.002762283396296538</v>
+      </c>
+      <c r="H35">
+        <v>-0.01223801823018577</v>
+      </c>
+      <c r="I35">
+        <v>-0.005305734487768225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009058817362528979</v>
+        <v>0.009335347063559042</v>
       </c>
       <c r="C36">
-        <v>-0.008147476714655374</v>
+        <v>-0.02000227928113609</v>
       </c>
       <c r="D36">
-        <v>-0.09593224690938161</v>
+        <v>0.0800640368075413</v>
       </c>
       <c r="E36">
-        <v>-0.03847508028424403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.005476543977907038</v>
+      </c>
+      <c r="F36">
+        <v>-0.03529791671142096</v>
+      </c>
+      <c r="G36">
+        <v>-0.002695919574405866</v>
+      </c>
+      <c r="H36">
+        <v>-0.06148747832839384</v>
+      </c>
+      <c r="I36">
+        <v>0.03432359425076525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.008076380649507456</v>
+        <v>0.01512581669265852</v>
       </c>
       <c r="C38">
-        <v>-0.008316616761560095</v>
+        <v>-0.01543740159497448</v>
       </c>
       <c r="D38">
-        <v>-0.08747874323528321</v>
+        <v>0.08397120646198959</v>
       </c>
       <c r="E38">
-        <v>-0.007244705328840414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01243889513684591</v>
+      </c>
+      <c r="F38">
+        <v>0.008213243392678657</v>
+      </c>
+      <c r="G38">
+        <v>-0.02428460984517481</v>
+      </c>
+      <c r="H38">
+        <v>-0.05436338028035445</v>
+      </c>
+      <c r="I38">
+        <v>0.03516223026831773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02456916053145505</v>
+        <v>0.007470581273095426</v>
       </c>
       <c r="C39">
-        <v>-0.05642856970247831</v>
+        <v>-0.07521534023467552</v>
       </c>
       <c r="D39">
-        <v>-0.1185382740675907</v>
+        <v>0.1085834566811234</v>
       </c>
       <c r="E39">
-        <v>0.02312047867444705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04654069827031951</v>
+      </c>
+      <c r="F39">
+        <v>0.004883712791995057</v>
+      </c>
+      <c r="G39">
+        <v>0.01248636045234885</v>
+      </c>
+      <c r="H39">
+        <v>-0.1016463956186435</v>
+      </c>
+      <c r="I39">
+        <v>-0.05843402987087393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.013100610123769</v>
+        <v>0.01225835155008236</v>
       </c>
       <c r="C40">
-        <v>-0.01794829670997924</v>
+        <v>-0.02644217422054078</v>
       </c>
       <c r="D40">
-        <v>-0.1136813568271469</v>
+        <v>0.09568386144265621</v>
       </c>
       <c r="E40">
-        <v>0.02705021231098353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.03898524699642985</v>
+      </c>
+      <c r="F40">
+        <v>0.02673266101707781</v>
+      </c>
+      <c r="G40">
+        <v>-0.07022074080692957</v>
+      </c>
+      <c r="H40">
+        <v>-0.07192920346459004</v>
+      </c>
+      <c r="I40">
+        <v>0.06248708619535325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01302673921107649</v>
+        <v>0.01158892605105316</v>
       </c>
       <c r="C41">
-        <v>-0.009853121763090479</v>
+        <v>-0.01790475869515472</v>
       </c>
       <c r="D41">
-        <v>-0.063763315199957</v>
+        <v>0.04521721801451268</v>
       </c>
       <c r="E41">
-        <v>-0.03233933218657999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02306882946167902</v>
+      </c>
+      <c r="F41">
+        <v>-0.01819794131096823</v>
+      </c>
+      <c r="G41">
+        <v>-0.01787650212600729</v>
+      </c>
+      <c r="H41">
+        <v>-0.0480747154818579</v>
+      </c>
+      <c r="I41">
+        <v>0.05162019068241223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007473185760127478</v>
+        <v>0.005209879480220637</v>
       </c>
       <c r="C43">
-        <v>-0.01395055233817672</v>
+        <v>-0.01875432370267152</v>
       </c>
       <c r="D43">
-        <v>-0.07813281210810931</v>
+        <v>0.05754039036088383</v>
       </c>
       <c r="E43">
-        <v>-0.02354306457928261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00769704652831783</v>
+      </c>
+      <c r="F43">
+        <v>-0.01702614895398428</v>
+      </c>
+      <c r="G43">
+        <v>-0.01927079271808466</v>
+      </c>
+      <c r="H43">
+        <v>-0.07463719048381602</v>
+      </c>
+      <c r="I43">
+        <v>0.04632055375331363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02064418183138481</v>
+        <v>0.01318940903266751</v>
       </c>
       <c r="C44">
-        <v>-0.02762832874362767</v>
+        <v>-0.04725032421039373</v>
       </c>
       <c r="D44">
-        <v>-0.1140722256380885</v>
+        <v>0.1179573343706313</v>
       </c>
       <c r="E44">
-        <v>-0.0355150753196465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01870399643046869</v>
+      </c>
+      <c r="F44">
+        <v>-0.02255372119810767</v>
+      </c>
+      <c r="G44">
+        <v>-0.02090751051954645</v>
+      </c>
+      <c r="H44">
+        <v>-0.04506108308064698</v>
+      </c>
+      <c r="I44">
+        <v>-0.06041083019184038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01200138931059762</v>
+        <v>-0.0001038146438412029</v>
       </c>
       <c r="C46">
-        <v>-0.03146365775036766</v>
+        <v>-0.04159109150551658</v>
       </c>
       <c r="D46">
-        <v>-0.100470506153039</v>
+        <v>0.08572599875936018</v>
       </c>
       <c r="E46">
-        <v>-0.01667756835695391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02248425951542494</v>
+      </c>
+      <c r="F46">
+        <v>-0.0269919223959652</v>
+      </c>
+      <c r="G46">
+        <v>-0.01693831382956126</v>
+      </c>
+      <c r="H46">
+        <v>-0.1364436291120798</v>
+      </c>
+      <c r="I46">
+        <v>0.02742397829770091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09427995201547193</v>
+        <v>0.03959483485488656</v>
       </c>
       <c r="C47">
-        <v>-0.09792895980353944</v>
+        <v>-0.1227042481872475</v>
       </c>
       <c r="D47">
-        <v>-0.05963717283312858</v>
+        <v>0.02408317691542605</v>
       </c>
       <c r="E47">
-        <v>-0.02494219760391776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01881585651384443</v>
+      </c>
+      <c r="F47">
+        <v>0.01226333472933472</v>
+      </c>
+      <c r="G47">
+        <v>0.04682730006269203</v>
+      </c>
+      <c r="H47">
+        <v>-0.03783021962209916</v>
+      </c>
+      <c r="I47">
+        <v>0.1359319783881282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006512909474665055</v>
+        <v>0.007120193854551161</v>
       </c>
       <c r="C48">
-        <v>-0.01783812471276761</v>
+        <v>-0.02808050497483547</v>
       </c>
       <c r="D48">
-        <v>-0.09576630955298454</v>
+        <v>0.0830209688423062</v>
       </c>
       <c r="E48">
-        <v>-0.05083146707036024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.007540931549624648</v>
+      </c>
+      <c r="F48">
+        <v>-0.03934164803786465</v>
+      </c>
+      <c r="G48">
+        <v>-0.00978303191816674</v>
+      </c>
+      <c r="H48">
+        <v>-0.09207231024565536</v>
+      </c>
+      <c r="I48">
+        <v>0.02677379030779162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04636806438268437</v>
+        <v>0.01404576935140068</v>
       </c>
       <c r="C50">
-        <v>-0.06064305397858756</v>
+        <v>-0.07518025095218156</v>
       </c>
       <c r="D50">
-        <v>-0.07297511155036154</v>
+        <v>0.04933994228197854</v>
       </c>
       <c r="E50">
-        <v>-0.007208125960670879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001172236810608047</v>
+      </c>
+      <c r="F50">
+        <v>-0.008739928945618215</v>
+      </c>
+      <c r="G50">
+        <v>-0.02516492851407236</v>
+      </c>
+      <c r="H50">
+        <v>-0.03822099851303232</v>
+      </c>
+      <c r="I50">
+        <v>0.1283872333697815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.005020973169442889</v>
+        <v>0.003576116986305437</v>
       </c>
       <c r="C51">
-        <v>-0.005631653290391577</v>
+        <v>-0.01767247725107533</v>
       </c>
       <c r="D51">
-        <v>-0.06580635082671128</v>
+        <v>0.07077239042541857</v>
       </c>
       <c r="E51">
-        <v>-0.0009689812478106399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03605520051266186</v>
+      </c>
+      <c r="F51">
+        <v>-0.03589714161265447</v>
+      </c>
+      <c r="G51">
+        <v>-0.03769785831900417</v>
+      </c>
+      <c r="H51">
+        <v>-0.0478230504531544</v>
+      </c>
+      <c r="I51">
+        <v>0.003152847572870226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1207230160130988</v>
+        <v>0.06274600338243501</v>
       </c>
       <c r="C53">
-        <v>-0.1106866682541603</v>
+        <v>-0.1551432406963975</v>
       </c>
       <c r="D53">
-        <v>-0.02097099143639594</v>
+        <v>-0.01264554619890069</v>
       </c>
       <c r="E53">
-        <v>-0.05775936024407136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03438539737275238</v>
+      </c>
+      <c r="F53">
+        <v>-0.04976540329167499</v>
+      </c>
+      <c r="G53">
+        <v>-0.01045646713001261</v>
+      </c>
+      <c r="H53">
+        <v>-0.003460462860533423</v>
+      </c>
+      <c r="I53">
+        <v>0.08818811318702041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01982812537143238</v>
+        <v>0.01177587250546109</v>
       </c>
       <c r="C54">
-        <v>-0.02379309807399929</v>
+        <v>-0.040790508795153</v>
       </c>
       <c r="D54">
-        <v>-0.1084085429527847</v>
+        <v>0.08509416029918644</v>
       </c>
       <c r="E54">
-        <v>-0.0001134890336038619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009084420814081158</v>
+      </c>
+      <c r="F54">
+        <v>0.00232868332518974</v>
+      </c>
+      <c r="G54">
+        <v>-0.02506485149250141</v>
+      </c>
+      <c r="H54">
+        <v>-0.09496525388424511</v>
+      </c>
+      <c r="I54">
+        <v>0.05433561661443784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1063036162702491</v>
+        <v>0.05023542857242167</v>
       </c>
       <c r="C55">
-        <v>-0.09200964438474343</v>
+        <v>-0.1260377974540388</v>
       </c>
       <c r="D55">
-        <v>-0.007176180270134527</v>
+        <v>-0.0258790669569564</v>
       </c>
       <c r="E55">
-        <v>-0.01474063451161974</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0007798888389576639</v>
+      </c>
+      <c r="F55">
+        <v>-0.01712772696470214</v>
+      </c>
+      <c r="G55">
+        <v>-0.01749887662013914</v>
+      </c>
+      <c r="H55">
+        <v>-0.01034484086949383</v>
+      </c>
+      <c r="I55">
+        <v>0.0895592039891832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1485616515830225</v>
+        <v>0.06991491153319156</v>
       </c>
       <c r="C56">
-        <v>-0.1206896070326108</v>
+        <v>-0.1831082060370475</v>
       </c>
       <c r="D56">
-        <v>-0.004965136429957566</v>
+        <v>-0.0248996837824452</v>
       </c>
       <c r="E56">
-        <v>-0.01594272226888219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03232616127019209</v>
+      </c>
+      <c r="F56">
+        <v>-0.01637931031544979</v>
+      </c>
+      <c r="G56">
+        <v>-0.06114715887680409</v>
+      </c>
+      <c r="H56">
+        <v>0.005934966967557814</v>
+      </c>
+      <c r="I56">
+        <v>0.1084606696319982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002781847109977527</v>
+        <v>0.007236725263520164</v>
       </c>
       <c r="C58">
-        <v>-0.01758795799104717</v>
+        <v>-0.04917251672697938</v>
       </c>
       <c r="D58">
-        <v>-0.2263289679422968</v>
+        <v>0.2843182857385605</v>
       </c>
       <c r="E58">
-        <v>-0.07324879485008451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02662908681567367</v>
+      </c>
+      <c r="F58">
+        <v>-0.08925082362787702</v>
+      </c>
+      <c r="G58">
+        <v>-0.1243707182288443</v>
+      </c>
+      <c r="H58">
+        <v>0.1033097279550992</v>
+      </c>
+      <c r="I58">
+        <v>-0.06902973674769547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1563036463273541</v>
+        <v>0.2448519789891216</v>
       </c>
       <c r="C59">
-        <v>0.1730527797425925</v>
+        <v>0.08337286820468198</v>
       </c>
       <c r="D59">
-        <v>-0.05286375287711069</v>
+        <v>0.05915096994783765</v>
       </c>
       <c r="E59">
-        <v>-0.03509126477695645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03127195201649517</v>
+      </c>
+      <c r="F59">
+        <v>-0.0143721539640498</v>
+      </c>
+      <c r="G59">
+        <v>0.001731203798046854</v>
+      </c>
+      <c r="H59">
+        <v>0.01888517825768867</v>
+      </c>
+      <c r="I59">
+        <v>0.02604442089657612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2044568427705092</v>
+        <v>0.1562857145349329</v>
       </c>
       <c r="C60">
-        <v>-0.08131301757602129</v>
+        <v>-0.1684572041899251</v>
       </c>
       <c r="D60">
-        <v>-0.1621728168730843</v>
+        <v>0.08888225427759872</v>
       </c>
       <c r="E60">
-        <v>0.1913881880387473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2291926413797875</v>
+      </c>
+      <c r="F60">
+        <v>0.1644081678042388</v>
+      </c>
+      <c r="G60">
+        <v>0.2281776441978332</v>
+      </c>
+      <c r="H60">
+        <v>0.1946505608483876</v>
+      </c>
+      <c r="I60">
+        <v>-0.04080916637968642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03518191709075637</v>
+        <v>0.01497456493609956</v>
       </c>
       <c r="C61">
-        <v>-0.05202901758574821</v>
+        <v>-0.07108894267980799</v>
       </c>
       <c r="D61">
-        <v>-0.1107725336745461</v>
+        <v>0.08671264869078636</v>
       </c>
       <c r="E61">
-        <v>0.009442783160418024</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03471329324225258</v>
+      </c>
+      <c r="F61">
+        <v>0.01318221258547666</v>
+      </c>
+      <c r="G61">
+        <v>0.02800189702504235</v>
+      </c>
+      <c r="H61">
+        <v>-0.09606549567216109</v>
+      </c>
+      <c r="I61">
+        <v>-0.01414729815040411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01144839065878398</v>
+        <v>0.003904815325991359</v>
       </c>
       <c r="C63">
-        <v>-0.02587398772722795</v>
+        <v>-0.03589461257022454</v>
       </c>
       <c r="D63">
-        <v>-0.09503488400969066</v>
+        <v>0.07199244650369885</v>
       </c>
       <c r="E63">
-        <v>-0.01099359937483823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02608808291757056</v>
+      </c>
+      <c r="F63">
+        <v>-0.02231037636574187</v>
+      </c>
+      <c r="G63">
+        <v>-0.01063903789524534</v>
+      </c>
+      <c r="H63">
+        <v>-0.06192305555827497</v>
+      </c>
+      <c r="I63">
+        <v>0.008096469330964669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0680328293739927</v>
+        <v>0.02427209627135648</v>
       </c>
       <c r="C64">
-        <v>-0.07827485356395819</v>
+        <v>-0.1048287464769946</v>
       </c>
       <c r="D64">
-        <v>-0.04364556751379398</v>
+        <v>0.03014337930046442</v>
       </c>
       <c r="E64">
-        <v>-0.01868557558684275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02824294509853956</v>
+      </c>
+      <c r="F64">
+        <v>-0.0234491700949993</v>
+      </c>
+      <c r="G64">
+        <v>0.04977818449655939</v>
+      </c>
+      <c r="H64">
+        <v>-0.1125551242066931</v>
+      </c>
+      <c r="I64">
+        <v>-0.05543028870765349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02898658079109278</v>
+        <v>0.02498527294046725</v>
       </c>
       <c r="C65">
-        <v>-0.01534608673734384</v>
+        <v>-0.03882560384667733</v>
       </c>
       <c r="D65">
-        <v>-0.1200406117517482</v>
+        <v>0.1192702840388173</v>
       </c>
       <c r="E65">
-        <v>-0.0009155945232367241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04436263814498485</v>
+      </c>
+      <c r="F65">
+        <v>-0.00544342100601338</v>
+      </c>
+      <c r="G65">
+        <v>0.0170045584564478</v>
+      </c>
+      <c r="H65">
+        <v>-0.04671386741418117</v>
+      </c>
+      <c r="I65">
+        <v>0.003489965026406378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02808765051107574</v>
+        <v>0.005550698880449549</v>
       </c>
       <c r="C66">
-        <v>-0.06307207323426295</v>
+        <v>-0.09016281918469078</v>
       </c>
       <c r="D66">
-        <v>-0.1222812743633909</v>
+        <v>0.1311706290228299</v>
       </c>
       <c r="E66">
-        <v>0.02731348954838917</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03267982752994529</v>
+      </c>
+      <c r="F66">
+        <v>0.01377182909410904</v>
+      </c>
+      <c r="G66">
+        <v>-0.00140136931570588</v>
+      </c>
+      <c r="H66">
+        <v>-0.05579278620640814</v>
+      </c>
+      <c r="I66">
+        <v>-0.06509947324253935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02920535678185914</v>
+        <v>0.02584649375699736</v>
       </c>
       <c r="C67">
-        <v>-0.01764773505672046</v>
+        <v>-0.02781831657624596</v>
       </c>
       <c r="D67">
-        <v>-0.04242755415074351</v>
+        <v>0.03369314248886097</v>
       </c>
       <c r="E67">
-        <v>0.01704596543259658</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002821592414016518</v>
+      </c>
+      <c r="F67">
+        <v>0.03033291223210952</v>
+      </c>
+      <c r="G67">
+        <v>-0.01160683792917392</v>
+      </c>
+      <c r="H67">
+        <v>-0.06532273844116651</v>
+      </c>
+      <c r="I67">
+        <v>0.02607948894867142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1800317637910125</v>
+        <v>0.2632839749833661</v>
       </c>
       <c r="C68">
-        <v>0.1855280780358698</v>
+        <v>0.08264146538122114</v>
       </c>
       <c r="D68">
-        <v>-0.03390203691105409</v>
+        <v>0.0356951007436462</v>
       </c>
       <c r="E68">
-        <v>-0.01459706713428122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004726695471912901</v>
+      </c>
+      <c r="F68">
+        <v>-0.03076738657733279</v>
+      </c>
+      <c r="G68">
+        <v>-0.06424796552158675</v>
+      </c>
+      <c r="H68">
+        <v>0.040381411987645</v>
+      </c>
+      <c r="I68">
+        <v>0.09590050948994368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07323554575556927</v>
+        <v>0.02490450982079049</v>
       </c>
       <c r="C69">
-        <v>-0.1114665598090422</v>
+        <v>-0.120262287225571</v>
       </c>
       <c r="D69">
-        <v>-0.08311023195744968</v>
+        <v>0.03815399720564161</v>
       </c>
       <c r="E69">
-        <v>-0.0118798152702137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.001888746115323775</v>
+      </c>
+      <c r="F69">
+        <v>0.01317702402190044</v>
+      </c>
+      <c r="G69">
+        <v>0.03061192233144391</v>
+      </c>
+      <c r="H69">
+        <v>-0.04180024986684234</v>
+      </c>
+      <c r="I69">
+        <v>0.09596074094369116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1860552447708866</v>
+        <v>0.2655007490984793</v>
       </c>
       <c r="C71">
-        <v>0.2032479407269424</v>
+        <v>0.0971160225023695</v>
       </c>
       <c r="D71">
-        <v>-0.03132733861697022</v>
+        <v>0.02162827915237708</v>
       </c>
       <c r="E71">
-        <v>-0.01642478040570093</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008876044069436035</v>
+      </c>
+      <c r="F71">
+        <v>-0.01782215272254483</v>
+      </c>
+      <c r="G71">
+        <v>-0.04144705589960934</v>
+      </c>
+      <c r="H71">
+        <v>-0.01259174127976075</v>
+      </c>
+      <c r="I71">
+        <v>0.1653053720565836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1154886713328619</v>
+        <v>0.06519719675388212</v>
       </c>
       <c r="C72">
-        <v>-0.06405908052259983</v>
+        <v>-0.1219086407241233</v>
       </c>
       <c r="D72">
-        <v>-0.09806981914783966</v>
+        <v>0.06409397029251576</v>
       </c>
       <c r="E72">
-        <v>0.04799783581123843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08875929435312789</v>
+      </c>
+      <c r="F72">
+        <v>0.01631398704991428</v>
+      </c>
+      <c r="G72">
+        <v>0.03086647178965249</v>
+      </c>
+      <c r="H72">
+        <v>-0.05841523716623093</v>
+      </c>
+      <c r="I72">
+        <v>-0.03561508998601127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1854977318641056</v>
+        <v>0.1434736667980652</v>
       </c>
       <c r="C73">
-        <v>-0.04050997361845703</v>
+        <v>-0.1342697719621433</v>
       </c>
       <c r="D73">
-        <v>-0.2196926715806624</v>
+        <v>0.09726352190726233</v>
       </c>
       <c r="E73">
-        <v>0.2931640038197435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3795492876190657</v>
+      </c>
+      <c r="F73">
+        <v>0.2467873734967931</v>
+      </c>
+      <c r="G73">
+        <v>0.4305294103451148</v>
+      </c>
+      <c r="H73">
+        <v>0.1653229085164785</v>
+      </c>
+      <c r="I73">
+        <v>-0.06847188000787803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1190453529240427</v>
+        <v>0.05795114370006733</v>
       </c>
       <c r="C74">
-        <v>-0.09906652511911902</v>
+        <v>-0.1416580613000651</v>
       </c>
       <c r="D74">
-        <v>0.02120633125697404</v>
+        <v>-0.0419092751486386</v>
       </c>
       <c r="E74">
-        <v>-0.04544162238649281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01207029291628227</v>
+      </c>
+      <c r="F74">
+        <v>-0.0463142844883447</v>
+      </c>
+      <c r="G74">
+        <v>-0.005278587870138329</v>
+      </c>
+      <c r="H74">
+        <v>0.01037387854794442</v>
+      </c>
+      <c r="I74">
+        <v>0.1141859890749894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2569699774871051</v>
+        <v>0.130420900539204</v>
       </c>
       <c r="C75">
-        <v>-0.1672373637456002</v>
+        <v>-0.2632647549589031</v>
       </c>
       <c r="D75">
-        <v>0.104482785053517</v>
+        <v>-0.1367827483778952</v>
       </c>
       <c r="E75">
-        <v>0.007007371215672261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08499155142909998</v>
+      </c>
+      <c r="F75">
+        <v>0.03501231237813251</v>
+      </c>
+      <c r="G75">
+        <v>-0.100194646615307</v>
+      </c>
+      <c r="H75">
+        <v>0.005259591407253505</v>
+      </c>
+      <c r="I75">
+        <v>0.09163349505364457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1573397226692161</v>
+        <v>0.07287632003488723</v>
       </c>
       <c r="C76">
-        <v>-0.1213014372742818</v>
+        <v>-0.1813634020801959</v>
       </c>
       <c r="D76">
-        <v>-0.0174993015514267</v>
+        <v>-0.03084969950880607</v>
       </c>
       <c r="E76">
-        <v>-0.01534537294219575</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02701254911294423</v>
+      </c>
+      <c r="F76">
+        <v>-0.006531720876126373</v>
+      </c>
+      <c r="G76">
+        <v>-0.05132219486386786</v>
+      </c>
+      <c r="H76">
+        <v>-0.03635760921686593</v>
+      </c>
+      <c r="I76">
+        <v>0.116575742878721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.0270130428134367</v>
+        <v>0.03182121012124323</v>
       </c>
       <c r="C77">
-        <v>-0.07987933742823158</v>
+        <v>-0.0940347864585737</v>
       </c>
       <c r="D77">
-        <v>-0.07528635324714306</v>
+        <v>0.2469193923314755</v>
       </c>
       <c r="E77">
-        <v>-0.2070321833006089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7693859595476293</v>
+      </c>
+      <c r="F77">
+        <v>0.322616410430702</v>
+      </c>
+      <c r="G77">
+        <v>0.3004780110841124</v>
+      </c>
+      <c r="H77">
+        <v>0.2438443230455208</v>
+      </c>
+      <c r="I77">
+        <v>0.03972448766394866</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03369641306018826</v>
+        <v>0.01803561123362053</v>
       </c>
       <c r="C78">
-        <v>-0.06774348565556748</v>
+        <v>-0.08730325789459185</v>
       </c>
       <c r="D78">
-        <v>-0.153752997944909</v>
+        <v>0.1401665197099659</v>
       </c>
       <c r="E78">
-        <v>-0.02879182781065005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04374624169620769</v>
+      </c>
+      <c r="F78">
+        <v>-0.04404914249311428</v>
+      </c>
+      <c r="G78">
+        <v>-0.03739241954480899</v>
+      </c>
+      <c r="H78">
+        <v>-0.01677884444558677</v>
+      </c>
+      <c r="I78">
+        <v>0.0209760974722432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1045621613292386</v>
+        <v>0.04242214743688637</v>
       </c>
       <c r="C79">
-        <v>-0.1478078852968379</v>
+        <v>-0.1776520089428614</v>
       </c>
       <c r="D79">
-        <v>0.09291330617825612</v>
+        <v>-0.06794125896250611</v>
       </c>
       <c r="E79">
-        <v>-0.7943378761225238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1089270080286347</v>
+      </c>
+      <c r="F79">
+        <v>-0.8089990659508413</v>
+      </c>
+      <c r="G79">
+        <v>0.3868555066706711</v>
+      </c>
+      <c r="H79">
+        <v>0.2201626476692877</v>
+      </c>
+      <c r="I79">
+        <v>-0.1549201256056122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.009807567457833701</v>
+        <v>-0.000298254397153793</v>
       </c>
       <c r="C80">
-        <v>-0.04871278942122714</v>
+        <v>-0.04852876590245249</v>
       </c>
       <c r="D80">
-        <v>-0.04672255053338305</v>
+        <v>0.04497034257203839</v>
       </c>
       <c r="E80">
-        <v>0.004452886100284721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01992838756865858</v>
+      </c>
+      <c r="F80">
+        <v>-0.008715195797837536</v>
+      </c>
+      <c r="G80">
+        <v>-0.04054324339839833</v>
+      </c>
+      <c r="H80">
+        <v>-0.02142563810454723</v>
+      </c>
+      <c r="I80">
+        <v>0.05382314020735667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1355991532913984</v>
+        <v>0.05613159464179012</v>
       </c>
       <c r="C81">
-        <v>-0.1170127410774029</v>
+        <v>-0.1643440348703553</v>
       </c>
       <c r="D81">
-        <v>0.06273210301563321</v>
+        <v>-0.07821124793500916</v>
       </c>
       <c r="E81">
-        <v>-0.06996149840880639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06824890526251495</v>
+      </c>
+      <c r="F81">
+        <v>-0.04478662053827811</v>
+      </c>
+      <c r="G81">
+        <v>-0.04739179664730938</v>
+      </c>
+      <c r="H81">
+        <v>-0.06290945088939863</v>
+      </c>
+      <c r="I81">
+        <v>0.1322775017625985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2854235509470867</v>
+        <v>0.1159520913846249</v>
       </c>
       <c r="C82">
-        <v>-0.2598273998622825</v>
+        <v>-0.324904305993502</v>
       </c>
       <c r="D82">
-        <v>0.208903423674724</v>
+        <v>-0.2294918689032498</v>
       </c>
       <c r="E82">
-        <v>0.11341401686534</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04000201079702457</v>
+      </c>
+      <c r="F82">
+        <v>0.123219663205159</v>
+      </c>
+      <c r="G82">
+        <v>-0.068215362831546</v>
+      </c>
+      <c r="H82">
+        <v>-0.0951592510429905</v>
+      </c>
+      <c r="I82">
+        <v>0.06011265332265216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0008250852212783798</v>
+        <v>-0.008675554924696476</v>
       </c>
       <c r="C83">
-        <v>-0.05767019012868165</v>
+        <v>-0.03575009272091896</v>
       </c>
       <c r="D83">
-        <v>-0.02419308810342989</v>
+        <v>0.04329396680892032</v>
       </c>
       <c r="E83">
-        <v>-0.05983987832101115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09536262795377297</v>
+      </c>
+      <c r="F83">
+        <v>-0.02944547646034406</v>
+      </c>
+      <c r="G83">
+        <v>-0.05054492920232619</v>
+      </c>
+      <c r="H83">
+        <v>-0.04002893833845453</v>
+      </c>
+      <c r="I83">
+        <v>0.08576885507048748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0001830758799586158</v>
+        <v>-0.001615012631380944</v>
       </c>
       <c r="C84">
-        <v>-0.0002116486413351443</v>
+        <v>-0.01569427679145915</v>
       </c>
       <c r="D84">
-        <v>-0.0008185776889488544</v>
+        <v>0.03854840002924238</v>
       </c>
       <c r="E84">
-        <v>-0.0005985673021028367</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.009489209948329861</v>
+      </c>
+      <c r="F84">
+        <v>-0.01416667468675162</v>
+      </c>
+      <c r="G84">
+        <v>-0.04540269923181544</v>
+      </c>
+      <c r="H84">
+        <v>0.005135591848480933</v>
+      </c>
+      <c r="I84">
+        <v>-0.03402218835690549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.159817244130868</v>
+        <v>0.07089598939998393</v>
       </c>
       <c r="C85">
-        <v>-0.1222744364266807</v>
+        <v>-0.1841960655293239</v>
       </c>
       <c r="D85">
-        <v>0.0468197017406206</v>
+        <v>-0.09227315352632415</v>
       </c>
       <c r="E85">
-        <v>-0.02805046237961751</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.003526032136774964</v>
+      </c>
+      <c r="F85">
+        <v>-0.07687671087800022</v>
+      </c>
+      <c r="G85">
+        <v>-0.03593052763255872</v>
+      </c>
+      <c r="H85">
+        <v>-0.008416742581127888</v>
+      </c>
+      <c r="I85">
+        <v>0.09620763009688585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0147152125242006</v>
+        <v>0.01257653792356539</v>
       </c>
       <c r="C86">
-        <v>-0.01571678733484982</v>
+        <v>-0.0310396162082541</v>
       </c>
       <c r="D86">
-        <v>-0.08756789057713038</v>
+        <v>0.1092785283776791</v>
       </c>
       <c r="E86">
-        <v>-0.04550239427895252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0434079956617813</v>
+      </c>
+      <c r="F86">
+        <v>0.01398525941206423</v>
+      </c>
+      <c r="G86">
+        <v>0.02308324500552281</v>
+      </c>
+      <c r="H86">
+        <v>-0.003516191700090827</v>
+      </c>
+      <c r="I86">
+        <v>0.07975996490002329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01755036287613011</v>
+        <v>0.01117983699736322</v>
       </c>
       <c r="C87">
-        <v>-0.02909359908117166</v>
+        <v>-0.05533805378034557</v>
       </c>
       <c r="D87">
-        <v>-0.1253977000564882</v>
+        <v>0.1443075642824873</v>
       </c>
       <c r="E87">
-        <v>-0.0397328009199153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01087006378222635</v>
+      </c>
+      <c r="F87">
+        <v>-0.03673870488934413</v>
+      </c>
+      <c r="G87">
+        <v>-0.06582007655110708</v>
+      </c>
+      <c r="H87">
+        <v>-0.01961790906276422</v>
+      </c>
+      <c r="I87">
+        <v>-0.04350950005120849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06248395077383909</v>
+        <v>0.03195960137741976</v>
       </c>
       <c r="C88">
-        <v>-0.04477219754244179</v>
+        <v>-0.06956745046442916</v>
       </c>
       <c r="D88">
-        <v>-0.04143751506503903</v>
+        <v>0.01156304244034519</v>
       </c>
       <c r="E88">
-        <v>-0.03219595603824608</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01413786990178126</v>
+      </c>
+      <c r="F88">
+        <v>-0.02456537142001834</v>
+      </c>
+      <c r="G88">
+        <v>-0.004214457571654438</v>
+      </c>
+      <c r="H88">
+        <v>-0.04327895061811027</v>
+      </c>
+      <c r="I88">
+        <v>0.05381135911034925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2778613174906089</v>
+        <v>0.4070500227637987</v>
       </c>
       <c r="C89">
-        <v>0.3659395140444511</v>
+        <v>0.1833846223907376</v>
       </c>
       <c r="D89">
-        <v>-0.04443302339047692</v>
+        <v>0.03165662507565736</v>
       </c>
       <c r="E89">
-        <v>-0.09001420562489769</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02112985136797526</v>
+      </c>
+      <c r="F89">
+        <v>-0.06563547053987796</v>
+      </c>
+      <c r="G89">
+        <v>-0.04128313984449782</v>
+      </c>
+      <c r="H89">
+        <v>-0.1387184908105202</v>
+      </c>
+      <c r="I89">
+        <v>-0.3716357940957146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2234861962527762</v>
+        <v>0.3105459224873204</v>
       </c>
       <c r="C90">
-        <v>0.2704806962177143</v>
+        <v>0.1229694724571597</v>
       </c>
       <c r="D90">
-        <v>-0.0362317622098307</v>
+        <v>0.03228886581740981</v>
       </c>
       <c r="E90">
-        <v>0.004934384754032912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01727029517520183</v>
+      </c>
+      <c r="F90">
+        <v>0.01822933742013771</v>
+      </c>
+      <c r="G90">
+        <v>-0.0657357799100971</v>
+      </c>
+      <c r="H90">
+        <v>0.0225906637659936</v>
+      </c>
+      <c r="I90">
+        <v>0.07888075197150803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1747068985979853</v>
+        <v>0.07937288999332003</v>
       </c>
       <c r="C91">
-        <v>-0.1607870748979388</v>
+        <v>-0.2051899014215565</v>
       </c>
       <c r="D91">
-        <v>0.102844048596021</v>
+        <v>-0.1133557982903873</v>
       </c>
       <c r="E91">
-        <v>-0.1093089525519453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07082817616799825</v>
+      </c>
+      <c r="F91">
+        <v>-0.07670174101846496</v>
+      </c>
+      <c r="G91">
+        <v>-0.02014722197952926</v>
+      </c>
+      <c r="H91">
+        <v>-0.003087236545371252</v>
+      </c>
+      <c r="I91">
+        <v>0.1251732542759509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2043863237155592</v>
+        <v>0.3282813049108542</v>
       </c>
       <c r="C92">
-        <v>0.2819707213734046</v>
+        <v>0.1584803129316229</v>
       </c>
       <c r="D92">
-        <v>0.04258908271362493</v>
+        <v>-0.006605799750826138</v>
       </c>
       <c r="E92">
-        <v>-0.05984905188525357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.08008150218710687</v>
+      </c>
+      <c r="F92">
+        <v>-0.0213815415931778</v>
+      </c>
+      <c r="G92">
+        <v>-0.03759400088626118</v>
+      </c>
+      <c r="H92">
+        <v>-0.03958968682523734</v>
+      </c>
+      <c r="I92">
+        <v>-0.1256012255654517</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2482376735698367</v>
+        <v>0.3309552605295254</v>
       </c>
       <c r="C93">
-        <v>0.2828595678227881</v>
+        <v>0.1313608627830617</v>
       </c>
       <c r="D93">
-        <v>-0.01490097772474648</v>
+        <v>-0.01803903006540112</v>
       </c>
       <c r="E93">
-        <v>-0.00787944451254354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02422564780989501</v>
+      </c>
+      <c r="F93">
+        <v>-0.01247478856436575</v>
+      </c>
+      <c r="G93">
+        <v>0.0117835701712087</v>
+      </c>
+      <c r="H93">
+        <v>0.0005657469959485495</v>
+      </c>
+      <c r="I93">
+        <v>0.1056792151660335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3298825317729316</v>
+        <v>0.1550595971114512</v>
       </c>
       <c r="C94">
-        <v>-0.2266020433706273</v>
+        <v>-0.3502726515423157</v>
       </c>
       <c r="D94">
-        <v>0.3679535061729387</v>
+        <v>-0.348021423709762</v>
       </c>
       <c r="E94">
-        <v>0.1824664954997485</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.03804834953868219</v>
+      </c>
+      <c r="F94">
+        <v>0.1160298255451437</v>
+      </c>
+      <c r="G94">
+        <v>-0.302058373054124</v>
+      </c>
+      <c r="H94">
+        <v>0.05901233733408107</v>
+      </c>
+      <c r="I94">
+        <v>-0.4191371255763987</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0249825377883507</v>
+        <v>0.02195363968329157</v>
       </c>
       <c r="C95">
-        <v>-0.03816754883403638</v>
+        <v>-0.06317313942100269</v>
       </c>
       <c r="D95">
-        <v>-0.07644946802596377</v>
+        <v>0.1091573135277758</v>
       </c>
       <c r="E95">
-        <v>-0.09724634665782712</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1995392291659782</v>
+      </c>
+      <c r="F95">
+        <v>0.07504809755956539</v>
+      </c>
+      <c r="G95">
+        <v>0.1304661326476579</v>
+      </c>
+      <c r="H95">
+        <v>-0.3870246003824283</v>
+      </c>
+      <c r="I95">
+        <v>-0.504496857259718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004577417736026287</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5.636041046754272e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0004794411449107512</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.0008994675357843001</v>
+      </c>
+      <c r="F97">
+        <v>0.001629102889174391</v>
+      </c>
+      <c r="G97">
+        <v>0.0009045361776254885</v>
+      </c>
+      <c r="H97">
+        <v>-0.000325650998672745</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004470559782155537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1553131996263194</v>
+        <v>0.1199055135488995</v>
       </c>
       <c r="C98">
-        <v>-0.05918642181563697</v>
+        <v>-0.137456821654123</v>
       </c>
       <c r="D98">
-        <v>-0.1081386953074267</v>
+        <v>0.06018923518485823</v>
       </c>
       <c r="E98">
-        <v>0.2143189842337616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2662136001191639</v>
+      </c>
+      <c r="F98">
+        <v>0.1701594610482194</v>
+      </c>
+      <c r="G98">
+        <v>0.2572000681089172</v>
+      </c>
+      <c r="H98">
+        <v>0.1700012214070128</v>
+      </c>
+      <c r="I98">
+        <v>-0.04298346730727887</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002946059395526595</v>
+        <v>0.001341761983551728</v>
       </c>
       <c r="C101">
-        <v>-0.02356266462316196</v>
+        <v>-0.03042669559177626</v>
       </c>
       <c r="D101">
-        <v>-0.1024470797941098</v>
+        <v>0.09768941578740591</v>
       </c>
       <c r="E101">
-        <v>-0.01069194964704711</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03821810075134222</v>
+      </c>
+      <c r="F101">
+        <v>-0.02925197975341293</v>
+      </c>
+      <c r="G101">
+        <v>-0.001491764763532088</v>
+      </c>
+      <c r="H101">
+        <v>-0.1220033043515636</v>
+      </c>
+      <c r="I101">
+        <v>0.02215204872383296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1261372494084834</v>
+        <v>0.0423006175505652</v>
       </c>
       <c r="C102">
-        <v>-0.1382973069285988</v>
+        <v>-0.1517627351681907</v>
       </c>
       <c r="D102">
-        <v>0.07683995039740954</v>
+        <v>-0.09595229325778987</v>
       </c>
       <c r="E102">
-        <v>0.0391428170769702</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0301506996339521</v>
+      </c>
+      <c r="F102">
+        <v>0.0655180174649503</v>
+      </c>
+      <c r="G102">
+        <v>0.008131898476590646</v>
+      </c>
+      <c r="H102">
+        <v>-0.04985339521619061</v>
+      </c>
+      <c r="I102">
+        <v>0.01923164907040686</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
